--- a/Resources/FeatureKey.xlsx
+++ b/Resources/FeatureKey.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A148DCE1-C3FB-4874-92A4-D4006FE421C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC3878-43A0-4AD4-83DD-BBBB609A69AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{B4BDDE2A-A48D-4BB9-82D5-596DACBBECDB}"/>
   </bookViews>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">(TP + TN) / (TP + TN + FP + FN) --- rate of successful detection of either alcohol or non-alcohol episodes </t>
   </si>
   <si>
-    <t>Episode_Identifier</t>
+    <t>Dataset_Identifier</t>
   </si>
 </sst>
 </file>
